--- a/ConcyssaWeb/wwwroot/Anexos/ExcelKardex-ATE-CP034-2020-PRINCIPAL.xlsx
+++ b/ConcyssaWeb/wwwroot/Anexos/ExcelKardex-ATE-CP034-2020-PRINCIPAL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Modulo</t>
   </si>
@@ -80,82 +80,166 @@
     <t>100102</t>
   </si>
   <si>
-    <t>ABRAZADERA ACERO 110-134 X 20MM REQUISITO NTP 350.096</t>
+    <t>ABRAZ. FO.FO. C/ZUNCHO DE ACERO 4" X DN15</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
+    <t>UND</t>
+  </si>
+  <si>
+    <t>MARCO ALANIA</t>
+  </si>
+  <si>
+    <t>SALIDA DE MERCANCIA</t>
+  </si>
+  <si>
+    <t>01/04/2024</t>
+  </si>
+  <si>
+    <t>EGRESO A PRODUCCION</t>
+  </si>
+  <si>
+    <t>SM24-17448</t>
+  </si>
+  <si>
+    <t>02/04/2024</t>
+  </si>
+  <si>
+    <t>Vale Interno</t>
+  </si>
+  <si>
+    <t>-0</t>
+  </si>
+  <si>
+    <t>HUGO BELTRAN ALMACEN</t>
+  </si>
+  <si>
+    <t>100407-REDES DE DESAGUE 2</t>
+  </si>
+  <si>
+    <t>018940</t>
+  </si>
+  <si>
     <t>ENTRADA DE MERCANCIA</t>
   </si>
   <si>
-    <t>08/01/2024</t>
-  </si>
-  <si>
-    <t>AJUSTE SALDO INICIAL</t>
-  </si>
-  <si>
-    <t>EM24-1</t>
-  </si>
-  <si>
-    <t>Vale Interno</t>
-  </si>
-  <si>
-    <t>-0</t>
-  </si>
-  <si>
-    <t>UND</t>
-  </si>
-  <si>
-    <t>FPEREZ</t>
-  </si>
-  <si>
-    <t>100417-CUADRILLA INGENIERA MONTER0 VENTURA LOURDES MARILI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>23/01/2024</t>
-  </si>
-  <si>
     <t>DEVOLUCION FISICA</t>
   </si>
   <si>
-    <t>EM24-73</t>
-  </si>
-  <si>
-    <t>MARCO ALANIA</t>
+    <t>EM24-1179</t>
+  </si>
+  <si>
+    <t>17448</t>
+  </si>
+  <si>
+    <t>EM24-1218</t>
+  </si>
+  <si>
+    <t>30/03/2024</t>
+  </si>
+  <si>
+    <t>100120-REDES DE AGUA (2 do TURNO )</t>
+  </si>
+  <si>
+    <t>018871</t>
+  </si>
+  <si>
+    <t>EM24-1221</t>
+  </si>
+  <si>
+    <t>100122-REDES DE AGUA 3ER TURNO</t>
+  </si>
+  <si>
+    <t>028373</t>
+  </si>
+  <si>
+    <t>EM24-1224</t>
+  </si>
+  <si>
+    <t>100503-CONEXIONES DOMICILIARIAS</t>
+  </si>
+  <si>
+    <t>018725</t>
+  </si>
+  <si>
+    <t>EM24-1225</t>
   </si>
   <si>
     <t>100501-CONEXIONES DOMICILIARIAS</t>
   </si>
   <si>
-    <t>SALIDA DE MERCANCIA</t>
+    <t>017750</t>
+  </si>
+  <si>
+    <t>03/04/2024</t>
   </si>
   <si>
     <t>EXTORNO INGRESO</t>
   </si>
   <si>
-    <t>SM24-1940</t>
-  </si>
-  <si>
-    <t>24/01/2024</t>
-  </si>
-  <si>
-    <t>26/01/2024</t>
-  </si>
-  <si>
-    <t>EGRESO A PRODUCCION</t>
-  </si>
-  <si>
-    <t>SM24-1942</t>
-  </si>
-  <si>
-    <t>Migración SGC</t>
-  </si>
-  <si>
-    <t>100134-EDIFICIO MULTIFAMILIAR PEDRO DE OSMA BARRANCO</t>
+    <t>SM24-18117</t>
+  </si>
+  <si>
+    <t>SM24-18118</t>
+  </si>
+  <si>
+    <t>SM24-18121</t>
+  </si>
+  <si>
+    <t>SM24-18124</t>
+  </si>
+  <si>
+    <t>EM24-1242</t>
+  </si>
+  <si>
+    <t>31/03/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100107-REDES  DE AGUA  4  VELARDE PALOMINO</t>
+  </si>
+  <si>
+    <t>018846</t>
+  </si>
+  <si>
+    <t>SM24-17888</t>
+  </si>
+  <si>
+    <t>EM24-1250</t>
+  </si>
+  <si>
+    <t>100106-REDES DE AGUA 3</t>
+  </si>
+  <si>
+    <t>010495</t>
+  </si>
+  <si>
+    <t>SM24-17906</t>
+  </si>
+  <si>
+    <t>SM24-17961</t>
+  </si>
+  <si>
+    <t>GUTIERREZ CARTOLIN PEDRO JUAN</t>
+  </si>
+  <si>
+    <t>100105-REDES DE AGUA 2</t>
+  </si>
+  <si>
+    <t>18083</t>
+  </si>
+  <si>
+    <t>EM24-1280</t>
+  </si>
+  <si>
+    <t>100502-CONEXIONES DOMICILIARIAS</t>
+  </si>
+  <si>
+    <t>018903</t>
+  </si>
+  <si>
+    <t>SM24-18097</t>
   </si>
 </sst>
 </file>
@@ -213,7 +297,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -282,10 +366,10 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -321,7 +405,7 @@
         <v>23</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" s="0">
         <v>0</v>
@@ -333,16 +417,16 @@
         <v>0</v>
       </c>
       <c r="O2" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P2" s="0">
-        <v>0</v>
+        <v>21.43</v>
       </c>
       <c r="Q2" s="0">
-        <v>0</v>
+        <v>85.72</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S2" s="0" t="s">
         <v>23</v>
@@ -353,7 +437,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>21</v>
@@ -362,60 +446,60 @@
         <v>22</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="L3" s="0">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="M3" s="0">
-        <v>39.2</v>
+        <v>21.43</v>
       </c>
       <c r="N3" s="0">
-        <v>901.6</v>
+        <v>-21.43</v>
       </c>
       <c r="O3" s="0">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="P3" s="0">
-        <v>39.2</v>
+        <v>21.43</v>
       </c>
       <c r="Q3" s="0">
-        <v>901.6</v>
+        <v>64.29</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>21</v>
@@ -424,60 +508,60 @@
         <v>22</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="0">
+        <v>1</v>
+      </c>
+      <c r="M4" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="N4" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="O4" s="0">
+        <v>4</v>
+      </c>
+      <c r="P4" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="Q4" s="0">
+        <v>85.72</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="0">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0">
-        <v>39.2</v>
-      </c>
-      <c r="N4" s="0">
-        <v>392</v>
-      </c>
-      <c r="O4" s="0">
-        <v>33</v>
-      </c>
-      <c r="P4" s="0">
-        <v>39.2</v>
-      </c>
-      <c r="Q4" s="0">
-        <v>1293.6</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="S4" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="T4" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>21</v>
@@ -486,60 +570,60 @@
         <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="H5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="0">
+        <v>4</v>
+      </c>
+      <c r="M5" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="N5" s="0">
+        <v>85.72</v>
+      </c>
+      <c r="O5" s="0">
+        <v>8</v>
+      </c>
+      <c r="P5" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="Q5" s="0">
+        <v>171.44</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="0">
-        <v>-10</v>
-      </c>
-      <c r="M5" s="0">
-        <v>39.2</v>
-      </c>
-      <c r="N5" s="0">
-        <v>-392</v>
-      </c>
-      <c r="O5" s="0">
-        <v>23</v>
-      </c>
-      <c r="P5" s="0">
-        <v>39.2</v>
-      </c>
-      <c r="Q5" s="0">
-        <v>901.6</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="T5" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>21</v>
@@ -548,55 +632,861 @@
         <v>22</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="0">
+        <v>1</v>
+      </c>
+      <c r="M6" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="N6" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="O6" s="0">
+        <v>9</v>
+      </c>
+      <c r="P6" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="Q6" s="0">
+        <v>192.87</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="0">
+        <v>2</v>
+      </c>
+      <c r="M7" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="N7" s="0">
+        <v>42.86</v>
+      </c>
+      <c r="O7" s="0">
+        <v>11</v>
+      </c>
+      <c r="P7" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="Q7" s="0">
+        <v>235.73</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="0">
+        <v>3</v>
+      </c>
+      <c r="M8" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="N8" s="0">
+        <v>64.29</v>
+      </c>
+      <c r="O8" s="0">
+        <v>14</v>
+      </c>
+      <c r="P8" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="Q8" s="0">
+        <v>300.02</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="0">
+        <v>-3</v>
+      </c>
+      <c r="M9" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="N9" s="0">
+        <v>-64.29</v>
+      </c>
+      <c r="O9" s="0">
+        <v>9</v>
+      </c>
+      <c r="P9" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="Q9" s="0">
+        <v>192.87</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="0">
+        <v>-2</v>
+      </c>
+      <c r="M10" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="N10" s="0">
+        <v>-42.86</v>
+      </c>
+      <c r="O10" s="0">
+        <v>7</v>
+      </c>
+      <c r="P10" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="Q10" s="0">
+        <v>150.01</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="0">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="N11" s="0">
+        <v>-21.43</v>
+      </c>
+      <c r="O11" s="0">
+        <v>6</v>
+      </c>
+      <c r="P11" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="Q11" s="0">
+        <v>128.58</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="0">
+        <v>-4</v>
+      </c>
+      <c r="M12" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="N12" s="0">
+        <v>-85.72</v>
+      </c>
+      <c r="O12" s="0">
+        <v>2</v>
+      </c>
+      <c r="P12" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="Q12" s="0">
+        <v>42.86</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="T12" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="0" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="0">
+        <v>5</v>
+      </c>
+      <c r="M13" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="N13" s="0">
+        <v>107.15</v>
+      </c>
+      <c r="O13" s="0">
+        <v>19</v>
+      </c>
+      <c r="P13" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="Q13" s="0">
+        <v>407.17</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="0">
+        <v>-5</v>
+      </c>
+      <c r="M14" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="N14" s="0">
+        <v>-107.15</v>
+      </c>
+      <c r="O14" s="0">
+        <v>14</v>
+      </c>
+      <c r="P14" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="Q14" s="0">
+        <v>300.02</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="0">
+        <v>1</v>
+      </c>
+      <c r="M15" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="N15" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="O15" s="0">
+        <v>15</v>
+      </c>
+      <c r="P15" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="Q15" s="0">
+        <v>321.45</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="0">
+        <v>-1</v>
+      </c>
+      <c r="M16" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="N16" s="0">
+        <v>-21.43</v>
+      </c>
+      <c r="O16" s="0">
+        <v>14</v>
+      </c>
+      <c r="P16" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="Q16" s="0">
+        <v>300.02</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="0">
-        <v>-1</v>
-      </c>
-      <c r="M6" s="0">
-        <v>39.2</v>
-      </c>
-      <c r="N6" s="0">
-        <v>-39.2</v>
-      </c>
-      <c r="O6" s="0">
-        <v>22</v>
-      </c>
-      <c r="P6" s="0">
-        <v>39.2</v>
-      </c>
-      <c r="Q6" s="0">
-        <v>862.4</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="S6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="T6" s="0" t="s">
+      <c r="F17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="0">
+        <v>-2</v>
+      </c>
+      <c r="M17" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="N17" s="0">
+        <v>-42.86</v>
+      </c>
+      <c r="O17" s="0">
+        <v>12</v>
+      </c>
+      <c r="P17" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="Q17" s="0">
+        <v>257.16</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="0">
+        <v>4</v>
+      </c>
+      <c r="M18" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="N18" s="0">
+        <v>85.72</v>
+      </c>
+      <c r="O18" s="0">
+        <v>16</v>
+      </c>
+      <c r="P18" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="Q18" s="0">
+        <v>342.88</v>
+      </c>
+      <c r="R18" s="0" t="s">
         <v>33</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="0">
+        <v>-4</v>
+      </c>
+      <c r="M19" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="N19" s="0">
+        <v>-85.72</v>
+      </c>
+      <c r="O19" s="0">
+        <v>12</v>
+      </c>
+      <c r="P19" s="0">
+        <v>21.43</v>
+      </c>
+      <c r="Q19" s="0">
+        <v>257.16</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
